--- a/Burndownchart.xlsx
+++ b/Burndownchart.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="1" r:id="rId1"/>
     <sheet name="1.1" sheetId="2" r:id="rId2"/>
     <sheet name="1.2" sheetId="3" r:id="rId3"/>
     <sheet name="1.3" sheetId="4" r:id="rId4"/>
+    <sheet name="1.4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>SPRINT 1 :</t>
   </si>
@@ -434,78 +435,78 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,10 +546,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12357174103237095"/>
+          <c:x val="0.12357174103237098"/>
           <c:y val="0.1901738845144357"/>
           <c:w val="0.82153937007874001"/>
-          <c:h val="0.65482210557013709"/>
+          <c:h val="0.6548221055701372"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -610,24 +611,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="126416000"/>
-        <c:axId val="128084992"/>
+        <c:axId val="93448064"/>
+        <c:axId val="93449600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126416000"/>
+        <c:axId val="93448064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128084992"/>
+        <c:crossAx val="93449600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128084992"/>
+        <c:axId val="93449600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,7 +636,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126416000"/>
+        <c:crossAx val="93448064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -644,7 +645,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -733,25 +734,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79448320"/>
-        <c:axId val="79863808"/>
+        <c:axId val="95776128"/>
+        <c:axId val="95810688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79448320"/>
+        <c:axId val="95776128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79863808"/>
+        <c:crossAx val="95810688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79863808"/>
+        <c:axId val="95810688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,7 +760,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79448320"/>
+        <c:crossAx val="95776128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -768,7 +769,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -862,24 +863,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90452736"/>
-        <c:axId val="90490752"/>
+        <c:axId val="93455872"/>
+        <c:axId val="93509888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90452736"/>
+        <c:axId val="93455872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90490752"/>
+        <c:crossAx val="93509888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90490752"/>
+        <c:axId val="93509888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +888,145 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90452736"/>
+        <c:crossAx val="93455872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:style val="8"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10968285214348207"/>
+          <c:y val="0.19491907261592301"/>
+          <c:w val="0.70044203849518805"/>
+          <c:h val="0.67099883347914846"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.4'!$B$12:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tenses (IV) Total = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.4'!$E$6:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.4'!$E$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="62353792"/>
+        <c:axId val="62355328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="62353792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62355328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62355328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62353792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -990,6 +1129,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1304,58 +1478,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1385,15 +1559,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -1402,119 +1576,119 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="17">
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="18">
+      <c r="C8" s="13"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="4">
         <v>40</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="18">
+      <c r="C9" s="13"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="4">
         <v>40</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="18">
+      <c r="C10" s="13"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="4">
         <v>40</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="19">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="5">
         <v>40</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="24"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1">
       <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="6">
         <f>SUM(E7:E11)</f>
         <v>170</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="11">
         <f t="shared" ref="F12:H12" si="0">SUM(F7:F11)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1535,15 +1709,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -1552,129 +1726,129 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="17">
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="18">
+      <c r="C8" s="13"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="4">
         <v>40</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="8">
         <v>30</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="18">
+      <c r="C9" s="13"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="4">
         <v>40</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="8">
         <v>30</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="18">
+      <c r="C10" s="13"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="4">
         <v>40</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="8">
         <v>30</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="19">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="5">
         <v>40</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="8">
         <v>30</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="24"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1">
       <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="6">
         <f>SUM(E7:E11)</f>
         <v>170</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="11">
         <f t="shared" ref="F12:H12" si="0">SUM(F7:F11)</f>
         <v>120</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1685,22 +1859,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -1709,126 +1883,126 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="17">
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="18">
+      <c r="C8" s="13"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="4">
         <v>40</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="9">
         <v>30</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="9">
         <v>20</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="18">
+      <c r="C9" s="13"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="4">
         <v>40</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="9">
         <v>30</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="9">
         <v>20</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="18">
+      <c r="C10" s="13"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="4">
         <v>40</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="9">
         <v>30</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="9">
         <v>20</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="19">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="5">
         <v>40</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="10">
         <v>30</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="10">
         <v>20</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" thickBot="1">
       <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="6">
         <f>SUM(E7:E11)</f>
         <v>170</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="11">
         <f t="shared" ref="F12:H12" si="0">SUM(F7:F11)</f>
         <v>120</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1846,4 +2020,181 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="4">
+        <v>40</v>
+      </c>
+      <c r="F8" s="9">
+        <v>30</v>
+      </c>
+      <c r="G8" s="9">
+        <v>20</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="4">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9">
+        <v>30</v>
+      </c>
+      <c r="G9" s="9">
+        <v>20</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="4">
+        <v>40</v>
+      </c>
+      <c r="F10" s="9">
+        <v>30</v>
+      </c>
+      <c r="G10" s="9">
+        <v>20</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="5">
+        <v>40</v>
+      </c>
+      <c r="F11" s="10">
+        <v>30</v>
+      </c>
+      <c r="G11" s="10">
+        <v>20</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6">
+        <f>SUM(E7:E11)</f>
+        <v>170</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" ref="F12:H12" si="0">SUM(F7:F11)</f>
+        <v>120</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Burndownchart.xlsx
+++ b/Burndownchart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="1.2" sheetId="3" r:id="rId3"/>
     <sheet name="1.3" sheetId="4" r:id="rId4"/>
     <sheet name="1.4" sheetId="5" r:id="rId5"/>
+    <sheet name="2.1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="33">
   <si>
     <t>SPRINT 1 :</t>
   </si>
@@ -93,6 +94,30 @@
   </si>
   <si>
     <t>Burnt Down Chart Sprint 1 - Hari Ketiga</t>
+  </si>
+  <si>
+    <t>Jumat</t>
+  </si>
+  <si>
+    <t>Sabtu</t>
+  </si>
+  <si>
+    <t>Minggu</t>
+  </si>
+  <si>
+    <t>Question Tag</t>
+  </si>
+  <si>
+    <t>Conditional Sentence</t>
+  </si>
+  <si>
+    <t>Many &amp; Much</t>
+  </si>
+  <si>
+    <t>Preposition</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -472,6 +497,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,21 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,10 +571,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12357174103237098"/>
+          <c:x val="0.12357174103237101"/>
           <c:y val="0.1901738845144357"/>
           <c:w val="0.82153937007874001"/>
-          <c:h val="0.6548221055701372"/>
+          <c:h val="0.65482210557013731"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -611,24 +636,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="93448064"/>
-        <c:axId val="93449600"/>
+        <c:axId val="37795328"/>
+        <c:axId val="37796864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93448064"/>
+        <c:axId val="37795328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93449600"/>
+        <c:crossAx val="37796864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93449600"/>
+        <c:axId val="37796864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,7 +661,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93448064"/>
+        <c:crossAx val="37795328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -645,7 +670,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -734,25 +759,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95776128"/>
-        <c:axId val="95810688"/>
+        <c:axId val="37981184"/>
+        <c:axId val="58721024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95776128"/>
+        <c:axId val="37981184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95810688"/>
+        <c:crossAx val="58721024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95810688"/>
+        <c:axId val="58721024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,7 +785,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95776128"/>
+        <c:crossAx val="37981184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -769,7 +794,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -863,24 +888,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="93455872"/>
-        <c:axId val="93509888"/>
+        <c:axId val="58761600"/>
+        <c:axId val="58763136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93455872"/>
+        <c:axId val="58761600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93509888"/>
+        <c:crossAx val="58763136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93509888"/>
+        <c:axId val="58763136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +913,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93455872"/>
+        <c:crossAx val="58761600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -897,7 +922,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -933,10 +958,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10968285214348207"/>
-          <c:y val="0.19491907261592301"/>
-          <c:w val="0.70044203849518805"/>
-          <c:h val="0.67099883347914846"/>
+          <c:x val="0.10968285214348208"/>
+          <c:y val="0.19491907261592303"/>
+          <c:w val="0.70044203849518816"/>
+          <c:h val="0.6709988334791489"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1001,24 +1026,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62353792"/>
-        <c:axId val="62355328"/>
+        <c:axId val="58816000"/>
+        <c:axId val="58817536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62353792"/>
+        <c:axId val="58816000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62355328"/>
+        <c:crossAx val="58817536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62355328"/>
+        <c:axId val="58817536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1051,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62353792"/>
+        <c:crossAx val="58816000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1035,7 +1060,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1549,7 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -1559,15 +1584,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -1576,11 +1601,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1595,11 +1620,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -1608,11 +1633,11 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="22"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -1621,11 +1646,11 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="22"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -1634,11 +1659,11 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="22"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -1647,11 +1672,11 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -1709,15 +1734,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -1726,11 +1751,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1745,11 +1770,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -1760,11 +1785,11 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="22"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -1775,11 +1800,11 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="22"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -1790,11 +1815,11 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="22"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -1805,11 +1830,11 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -1866,15 +1891,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -1883,11 +1908,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1902,11 +1927,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -1919,11 +1944,11 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="22"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -1936,11 +1961,11 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="22"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -1953,11 +1978,11 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="22"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -1970,11 +1995,11 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -2026,22 +2051,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -2050,11 +2075,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2069,11 +2094,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -2088,11 +2113,11 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="22"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -2107,11 +2132,11 @@
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="22"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -2126,11 +2151,11 @@
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="22"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -2145,11 +2170,11 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -2186,15 +2211,151 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4">
+        <v>100</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1">
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6">
+        <f>SUM(E7:E10)</f>
+        <v>200</v>
+      </c>
+      <c r="F11" s="11">
+        <f>SUM(F7:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <f>SUM(G7:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Burndownchart.xlsx
+++ b/Burndownchart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="1.3" sheetId="4" r:id="rId4"/>
     <sheet name="1.4" sheetId="5" r:id="rId5"/>
     <sheet name="2.1" sheetId="6" r:id="rId6"/>
+    <sheet name="2.2" sheetId="8" r:id="rId7"/>
+    <sheet name="2.3" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>SPRINT 1 :</t>
   </si>
@@ -117,7 +119,25 @@
     <t>Preposition</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Degree of Comparison</t>
+  </si>
+  <si>
+    <t>Passive Voice Part I</t>
+  </si>
+  <si>
+    <t>Passive Voice Part II</t>
+  </si>
+  <si>
+    <t>Passive Voice Part III</t>
+  </si>
+  <si>
+    <t>Passive Voice Part IV</t>
+  </si>
+  <si>
+    <t>Sythesis</t>
+  </si>
+  <si>
+    <t>Modal &amp; Auxiliaries</t>
   </si>
 </sst>
 </file>
@@ -148,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -454,11 +474,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -490,6 +534,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,6 +586,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +625,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -571,10 +632,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12357174103237101"/>
+          <c:x val="0.12357174103237106"/>
           <c:y val="0.1901738845144357"/>
           <c:w val="0.82153937007874001"/>
-          <c:h val="0.65482210557013731"/>
+          <c:h val="0.65482210557013754"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -636,24 +697,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="37795328"/>
-        <c:axId val="37796864"/>
+        <c:axId val="76212096"/>
+        <c:axId val="76213632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37795328"/>
+        <c:axId val="76212096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37796864"/>
+        <c:crossAx val="76213632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37796864"/>
+        <c:axId val="76213632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +722,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37795328"/>
+        <c:crossAx val="76212096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -670,7 +731,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -696,7 +757,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -759,25 +819,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="37981184"/>
-        <c:axId val="58721024"/>
+        <c:axId val="35122560"/>
+        <c:axId val="35402880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37981184"/>
+        <c:axId val="35122560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58721024"/>
+        <c:crossAx val="35402880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58721024"/>
+        <c:axId val="35402880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +845,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37981184"/>
+        <c:crossAx val="35122560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -794,7 +854,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -888,24 +948,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58761600"/>
-        <c:axId val="58763136"/>
+        <c:axId val="35447552"/>
+        <c:axId val="35449088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58761600"/>
+        <c:axId val="35447552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58763136"/>
+        <c:crossAx val="35449088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58763136"/>
+        <c:axId val="35449088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +973,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58761600"/>
+        <c:crossAx val="35447552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -922,7 +982,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -958,10 +1018,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10968285214348208"/>
-          <c:y val="0.19491907261592303"/>
-          <c:w val="0.70044203849518816"/>
-          <c:h val="0.6709988334791489"/>
+          <c:x val="0.10968285214348211"/>
+          <c:y val="0.19491907261592309"/>
+          <c:w val="0.7004420384951886"/>
+          <c:h val="0.67099883347914957"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1026,24 +1086,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58816000"/>
-        <c:axId val="58817536"/>
+        <c:axId val="58443648"/>
+        <c:axId val="58445184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58816000"/>
+        <c:axId val="58443648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58817536"/>
+        <c:crossAx val="58445184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58817536"/>
+        <c:axId val="58445184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +1111,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58816000"/>
+        <c:crossAx val="58443648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1060,7 +1120,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1503,21 +1563,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1526,10 +1586,10 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1538,10 +1598,10 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1550,10 +1610,10 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1584,15 +1644,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -1601,11 +1661,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1620,11 +1680,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -1633,11 +1693,11 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -1646,11 +1706,11 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -1659,11 +1719,11 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -1672,11 +1732,11 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -1725,7 +1785,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="G7:H11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1734,15 +1794,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -1751,11 +1811,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1770,11 +1830,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -1785,11 +1845,11 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -1800,11 +1860,11 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -1815,11 +1875,11 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -1830,11 +1890,11 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -1891,15 +1951,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -1908,11 +1968,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1927,11 +1987,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -1944,11 +2004,11 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -1961,11 +2021,11 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -1978,11 +2038,11 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -1995,11 +2055,11 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -2051,22 +2111,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -2075,11 +2135,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2094,11 +2154,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -2113,11 +2173,11 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -2132,11 +2192,11 @@
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -2151,11 +2211,11 @@
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -2170,11 +2230,11 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -2211,13 +2271,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2226,23 +2286,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="E15:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
@@ -2251,11 +2315,11 @@
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
@@ -2267,95 +2331,651 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="3">
-        <v>100</v>
-      </c>
-      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="4">
+        <v>35</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="4">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="4">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="4">
+        <v>30</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="4">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="4">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="4">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="4">
+        <v>35</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="4">
-        <v>100</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="14" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="4">
+        <v>25</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1">
-      <c r="D11" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="4">
+        <v>25</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6">
-        <f>SUM(E7:E10)</f>
-        <v>200</v>
-      </c>
-      <c r="F11" s="11">
-        <f>SUM(F7:F10)</f>
+      <c r="E18" s="6">
+        <f>SUM(E7:E17)</f>
+        <v>320</v>
+      </c>
+      <c r="F18" s="11">
+        <f>SUM(F7:F17)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="11">
-        <f>SUM(G7:G10)</f>
+      <c r="G18" s="11">
+        <f>SUM(G7:G17)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="3">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="4">
+        <v>35</v>
+      </c>
+      <c r="F8" s="8">
+        <v>20</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="4">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8">
+        <v>30</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="4">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="4">
+        <v>30</v>
+      </c>
+      <c r="F11" s="8">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="4">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="4">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="4">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="4">
+        <v>35</v>
+      </c>
+      <c r="F15" s="8">
+        <v>35</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="4">
+        <v>25</v>
+      </c>
+      <c r="F16" s="8">
+        <v>25</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="4">
+        <v>25</v>
+      </c>
+      <c r="F17" s="8">
+        <v>25</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1">
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6">
+        <f>SUM(E7:E17)</f>
+        <v>320</v>
+      </c>
+      <c r="F18" s="11">
+        <f>SUM(F7:F17)</f>
+        <v>275</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(G7:G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="3">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="4">
+        <v>35</v>
+      </c>
+      <c r="F8" s="8">
+        <v>20</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="4">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8">
+        <v>30</v>
+      </c>
+      <c r="G9" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="4">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="4">
+        <v>30</v>
+      </c>
+      <c r="F11" s="8">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="4">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="4">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="4">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="4">
+        <v>35</v>
+      </c>
+      <c r="F15" s="8">
+        <v>35</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="4">
+        <v>25</v>
+      </c>
+      <c r="F16" s="8">
+        <v>25</v>
+      </c>
+      <c r="G16" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="4">
+        <v>25</v>
+      </c>
+      <c r="F17" s="8">
+        <v>25</v>
+      </c>
+      <c r="G17" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1">
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6">
+        <f>SUM(E7:E17)</f>
+        <v>320</v>
+      </c>
+      <c r="F18" s="11">
+        <f>SUM(F7:F17)</f>
+        <v>275</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(G7:G17)</f>
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Burndownchart.xlsx
+++ b/Burndownchart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,16 @@
     <sheet name="2.1" sheetId="6" r:id="rId6"/>
     <sheet name="2.2" sheetId="8" r:id="rId7"/>
     <sheet name="2.3" sheetId="9" r:id="rId8"/>
+    <sheet name="3.1" sheetId="10" r:id="rId9"/>
+    <sheet name="3.2" sheetId="11" r:id="rId10"/>
+    <sheet name="3.3" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="48">
   <si>
     <t>SPRINT 1 :</t>
   </si>
@@ -134,10 +137,37 @@
     <t>Passive Voice Part IV</t>
   </si>
   <si>
-    <t>Sythesis</t>
+    <t>Modal &amp; Auxiliaries</t>
   </si>
   <si>
-    <t>Modal &amp; Auxiliaries</t>
+    <t>Burnt Down Chart Sprint 2 - Hari Ketiga</t>
+  </si>
+  <si>
+    <t>Burnt Down Chart Sprint 2 - Hari Kedua</t>
+  </si>
+  <si>
+    <t>Burnt Down Chart Sprint 2 - Hari Pertama</t>
+  </si>
+  <si>
+    <t>Burnt Down Chart Sprint 3 - Hari Pertama</t>
+  </si>
+  <si>
+    <t>Burnt Down Chart Sprint 3 - Hari Kedua</t>
+  </si>
+  <si>
+    <t>Snythesis</t>
+  </si>
+  <si>
+    <t>Elliptical Construction</t>
+  </si>
+  <si>
+    <t>Concordance</t>
+  </si>
+  <si>
+    <t>Subjunctive</t>
+  </si>
+  <si>
+    <t>Burnt Down Chart Sprint 3 - Hari Ketiga</t>
   </si>
 </sst>
 </file>
@@ -168,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -498,11 +528,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,6 +704,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,6 +763,70 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,10 +865,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12357174103237106"/>
+          <c:x val="0.12357174103237108"/>
           <c:y val="0.1901738845144357"/>
           <c:w val="0.82153937007874001"/>
-          <c:h val="0.65482210557013754"/>
+          <c:h val="0.65482210557013765"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -697,24 +930,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76212096"/>
-        <c:axId val="76213632"/>
+        <c:axId val="60398208"/>
+        <c:axId val="60416384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76212096"/>
+        <c:axId val="60398208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76213632"/>
+        <c:crossAx val="60416384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76213632"/>
+        <c:axId val="60416384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +955,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76212096"/>
+        <c:crossAx val="60398208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -731,7 +964,129 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.3'!$B$15:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subjunctive Total = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.3'!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.3'!$E$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="130422656"/>
+        <c:axId val="75277056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="130422656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75277056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75277056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130422656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -819,25 +1174,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="35122560"/>
-        <c:axId val="35402880"/>
+        <c:axId val="60559744"/>
+        <c:axId val="60561280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35122560"/>
+        <c:axId val="60559744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35402880"/>
+        <c:crossAx val="60561280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35402880"/>
+        <c:axId val="60561280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,7 +1200,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35122560"/>
+        <c:crossAx val="60559744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -854,7 +1209,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -885,7 +1240,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -948,24 +1302,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="35447552"/>
-        <c:axId val="35449088"/>
+        <c:axId val="60565376"/>
+        <c:axId val="60582912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35447552"/>
+        <c:axId val="60565376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35449088"/>
+        <c:crossAx val="60582912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35449088"/>
+        <c:axId val="60582912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,7 +1327,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35447552"/>
+        <c:crossAx val="60565376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -982,7 +1336,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1018,10 +1372,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10968285214348211"/>
-          <c:y val="0.19491907261592309"/>
-          <c:w val="0.7004420384951886"/>
-          <c:h val="0.67099883347914957"/>
+          <c:x val="0.10968285214348213"/>
+          <c:y val="0.19491907261592312"/>
+          <c:w val="0.70044203849518871"/>
+          <c:h val="0.67099883347915001"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1086,24 +1440,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58443648"/>
-        <c:axId val="58445184"/>
+        <c:axId val="61299328"/>
+        <c:axId val="61325696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58443648"/>
+        <c:axId val="61299328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58445184"/>
+        <c:crossAx val="61325696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58445184"/>
+        <c:axId val="61325696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1465,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58443648"/>
+        <c:crossAx val="61299328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1120,7 +1474,601 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.1'!$B$18:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preposition Total = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2.1'!$E$6:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.1'!$E$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="126503552"/>
+        <c:axId val="126509440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="126503552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126509440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126509440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126503552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.2'!$B$18:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preposition Total = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2.2'!$E$6:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.2'!$E$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="130420736"/>
+        <c:axId val="130423808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="130420736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130423808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="130423808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130420736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.3'!$B$18:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preposition Total = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2.3'!$E$6:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.3'!$E$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="59174272"/>
+        <c:axId val="71637632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="59174272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71637632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71637632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="59174272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.1'!$B$15:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subjunctive Total = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.1'!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.1'!$E$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="129930368"/>
+        <c:axId val="129932288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="129930368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129932288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129932288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129930368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.2'!$B$15:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subjunctive Total = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3.2'!$E$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jumat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sabtu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Minggu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2'!$E$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="130782336"/>
+        <c:axId val="66249472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="130782336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66249472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66249472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130782336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1144,6 +2092,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1249,6 +2232,181 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1563,21 +2721,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1586,10 +2744,10 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1598,10 +2756,10 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1610,10 +2768,10 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1627,6 +2785,535 @@
     <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:G15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="53">
+        <v>25</v>
+      </c>
+      <c r="F8" s="53">
+        <v>0</v>
+      </c>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="54">
+        <v>25</v>
+      </c>
+      <c r="F9" s="54">
+        <v>25</v>
+      </c>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="54">
+        <v>30</v>
+      </c>
+      <c r="F10" s="54">
+        <v>30</v>
+      </c>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="54">
+        <v>30</v>
+      </c>
+      <c r="F11" s="54">
+        <v>0</v>
+      </c>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="54">
+        <v>30</v>
+      </c>
+      <c r="F12" s="54">
+        <v>30</v>
+      </c>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="54">
+        <v>30</v>
+      </c>
+      <c r="F13" s="54">
+        <v>30</v>
+      </c>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="6">
+        <v>30</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0</v>
+      </c>
+      <c r="G14" s="57"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6">
+        <f>SUM(E8:E14)</f>
+        <v>200</v>
+      </c>
+      <c r="F15" s="6">
+        <f>SUM(F8:F14)</f>
+        <v>115</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:14">
+      <c r="B3" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="53">
+        <v>25</v>
+      </c>
+      <c r="F8" s="53">
+        <v>0</v>
+      </c>
+      <c r="G8" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="54">
+        <v>25</v>
+      </c>
+      <c r="F9" s="54">
+        <v>25</v>
+      </c>
+      <c r="G9" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="54">
+        <v>30</v>
+      </c>
+      <c r="F10" s="54">
+        <v>30</v>
+      </c>
+      <c r="G10" s="35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="54">
+        <v>30</v>
+      </c>
+      <c r="F11" s="54">
+        <v>0</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="54">
+        <v>30</v>
+      </c>
+      <c r="F12" s="54">
+        <v>30</v>
+      </c>
+      <c r="G12" s="35">
+        <v>0</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="54">
+        <v>30</v>
+      </c>
+      <c r="F13" s="54">
+        <v>30</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="6">
+        <v>30</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0</v>
+      </c>
+      <c r="G14" s="57">
+        <v>0</v>
+      </c>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6">
+        <f>SUM(E8:E14)</f>
+        <v>200</v>
+      </c>
+      <c r="F15" s="6">
+        <f>SUM(F8:F14)</f>
+        <v>115</v>
+      </c>
+      <c r="G15" s="11">
+        <f>SUM(G8:G14)</f>
+        <v>30</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+    </row>
+    <row r="17" spans="10:14">
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+    </row>
+    <row r="18" spans="10:14">
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+    </row>
+    <row r="19" spans="10:14">
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+    </row>
+    <row r="20" spans="10:14">
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+    </row>
+    <row r="21" spans="10:14">
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+    </row>
+    <row r="22" spans="10:14">
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+    </row>
+    <row r="23" spans="10:14">
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+    </row>
+    <row r="24" spans="10:14">
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+    </row>
+    <row r="25" spans="10:14">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+    </row>
+    <row r="26" spans="10:14">
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+    </row>
+    <row r="27" spans="10:14">
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+    </row>
+    <row r="28" spans="10:14">
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+    </row>
+    <row r="29" spans="10:14">
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+    </row>
+    <row r="30" spans="10:14">
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+    </row>
+    <row r="31" spans="10:14">
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+    </row>
+    <row r="32" spans="10:14">
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+    </row>
+    <row r="33" spans="10:14">
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+    </row>
+    <row r="34" spans="10:14">
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+    </row>
+    <row r="35" spans="10:14">
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+    </row>
+    <row r="36" spans="10:14">
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+    </row>
+    <row r="37" spans="10:14">
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1644,15 +3331,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -1661,11 +3348,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1680,11 +3367,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -1693,11 +3380,11 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -1706,11 +3393,11 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -1719,11 +3406,11 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -1732,11 +3419,11 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -1794,15 +3481,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -1811,11 +3498,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1830,11 +3517,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -1845,11 +3532,11 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -1860,11 +3547,11 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -1875,11 +3562,11 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -1890,11 +3577,11 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -1951,15 +3638,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -1968,11 +3655,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1987,11 +3674,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -2004,11 +3691,11 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -2021,11 +3708,11 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -2038,11 +3725,11 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -2055,11 +3742,11 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -2111,22 +3798,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -2135,11 +3822,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2154,11 +3841,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -2173,11 +3860,11 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -2192,11 +3879,11 @@
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -2211,11 +3898,11 @@
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -2230,11 +3917,11 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -2289,7 +3976,7 @@
   <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="E15:G18"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2299,14 +3986,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
@@ -2315,11 +4002,11 @@
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
@@ -2331,11 +4018,11 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="3">
         <v>30</v>
       </c>
@@ -2343,11 +4030,11 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="4">
         <v>35</v>
       </c>
@@ -2403,11 +4090,11 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="4">
         <v>30</v>
       </c>
@@ -2415,11 +4102,11 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="4">
         <v>20</v>
       </c>
@@ -2427,11 +4114,11 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="4">
         <v>35</v>
       </c>
@@ -2439,11 +4126,11 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="4">
         <v>25</v>
       </c>
@@ -2451,11 +4138,11 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="4">
         <v>25</v>
       </c>
@@ -2491,6 +4178,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2498,8 +4186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2509,14 +4197,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
@@ -2525,11 +4213,11 @@
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
@@ -2541,11 +4229,11 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="3">
         <v>30</v>
       </c>
@@ -2555,11 +4243,11 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="4">
         <v>35</v>
       </c>
@@ -2625,8 +4313,8 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="12" t="s">
-        <v>37</v>
+      <c r="B13" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -2639,11 +4327,11 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="4">
         <v>20</v>
       </c>
@@ -2654,7 +4342,7 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -2667,11 +4355,11 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="4">
         <v>25</v>
       </c>
@@ -2681,11 +4369,11 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="4">
         <v>25</v>
       </c>
@@ -2723,6 +4411,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2730,8 +4419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2741,14 +4430,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
@@ -2757,11 +4446,11 @@
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
@@ -2773,11 +4462,11 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="3">
         <v>30</v>
       </c>
@@ -2789,11 +4478,11 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="4">
         <v>35</v>
       </c>
@@ -2869,8 +4558,8 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="12" t="s">
-        <v>37</v>
+      <c r="B13" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -2885,11 +4574,11 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="4">
         <v>20</v>
       </c>
@@ -2902,7 +4591,7 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -2917,11 +4606,11 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="4">
         <v>25</v>
       </c>
@@ -2933,11 +4622,11 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="4">
         <v>25</v>
       </c>
@@ -2977,5 +4666,170 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:G18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="53">
+        <v>25</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="54">
+        <v>25</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="54">
+        <v>30</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="54">
+        <v>30</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="54">
+        <v>30</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="54">
+        <v>30</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="6">
+        <v>30</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="52"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6">
+        <f>SUM(E8:E14)</f>
+        <v>200</v>
+      </c>
+      <c r="F15" s="6">
+        <f ca="1">SUM(F9:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <f ca="1">SUM(G9:G19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Burndownchart.xlsx
+++ b/Burndownchart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,17 @@
     <sheet name="3.1" sheetId="10" r:id="rId9"/>
     <sheet name="3.2" sheetId="11" r:id="rId10"/>
     <sheet name="3.3" sheetId="12" r:id="rId11"/>
+    <sheet name="4.1" sheetId="13" r:id="rId12"/>
+    <sheet name="4.2" sheetId="14" r:id="rId13"/>
+    <sheet name="4.3" sheetId="15" r:id="rId14"/>
+    <sheet name="4.4" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="51">
   <si>
     <t>SPRINT 1 :</t>
   </si>
@@ -169,6 +173,15 @@
   <si>
     <t>Burnt Down Chart Sprint 3 - Hari Ketiga</t>
   </si>
+  <si>
+    <t>Gerund Vs To+Infinitive</t>
+  </si>
+  <si>
+    <t>Memperbaiki Tampilan</t>
+  </si>
+  <si>
+    <t>Burnt Down Chart Sprint 4 - Hari ke-10 s/d Hari ke-14</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -658,11 +671,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,6 +736,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -764,19 +834,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,47 +849,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,7 +892,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12357174103237108"/>
+          <c:x val="0.12357174103237112"/>
           <c:y val="0.1901738845144357"/>
           <c:w val="0.82153937007874001"/>
           <c:h val="0.65482210557013765"/>
@@ -930,24 +957,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60398208"/>
-        <c:axId val="60416384"/>
+        <c:axId val="64439424"/>
+        <c:axId val="64440960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60398208"/>
+        <c:axId val="64439424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60416384"/>
+        <c:crossAx val="64440960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60416384"/>
+        <c:axId val="64440960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +982,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60398208"/>
+        <c:crossAx val="64439424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -964,7 +991,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -995,7 +1022,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1052,24 +1078,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="130422656"/>
-        <c:axId val="75277056"/>
+        <c:axId val="86422656"/>
+        <c:axId val="86424192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130422656"/>
+        <c:axId val="86422656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75277056"/>
+        <c:crossAx val="86424192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75277056"/>
+        <c:axId val="86424192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +1103,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130422656"/>
+        <c:crossAx val="86422656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1086,7 +1112,534 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12357174103237115"/>
+          <c:y val="0.1901738845144357"/>
+          <c:w val="0.82153937007874001"/>
+          <c:h val="0.65482210557013765"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.1'!$B$13:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memperbaiki Tampilan Total = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4.1'!$E$6:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.1'!$E$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="86432384"/>
+        <c:axId val="101154816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="86432384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101154816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101154816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86432384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12357174103237119"/>
+          <c:y val="0.1901738845144357"/>
+          <c:w val="0.82153937007874001"/>
+          <c:h val="0.65482210557013765"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.2'!$B$13:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memperbaiki Tampilan Total = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4.2'!$E$6:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.2'!$E$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="119033856"/>
+        <c:axId val="119035392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="119033856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119035392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119035392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119033856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12357174103237122"/>
+          <c:y val="0.1901738845144357"/>
+          <c:w val="0.82153937007874001"/>
+          <c:h val="0.65482210557013765"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.3'!$B$13:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memperbaiki Tampilan Total = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4.3'!$E$6:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.3'!$E$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="104070144"/>
+        <c:axId val="103949056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="104070144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103949056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103949056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104070144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="id-ID"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12357174103237124"/>
+          <c:y val="0.1901738845144357"/>
+          <c:w val="0.82153937007874001"/>
+          <c:h val="0.65482210557013765"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4.4'!$B$13:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memperbaiki Tampilan Total = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4.4'!$E$6:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Senin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selasa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rabu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kamis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4.4'!$E$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="103643392"/>
+        <c:axId val="103645184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="103643392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103645184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103645184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103643392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1174,25 +1727,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60559744"/>
-        <c:axId val="60561280"/>
+        <c:axId val="64383616"/>
+        <c:axId val="64409984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60559744"/>
+        <c:axId val="64383616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60561280"/>
+        <c:crossAx val="64409984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60561280"/>
+        <c:axId val="64409984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1753,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60559744"/>
+        <c:crossAx val="64383616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1209,7 +1762,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1302,24 +1855,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60565376"/>
-        <c:axId val="60582912"/>
+        <c:axId val="82735104"/>
+        <c:axId val="82736640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60565376"/>
+        <c:axId val="82735104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60582912"/>
+        <c:crossAx val="82736640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60582912"/>
+        <c:axId val="82736640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1880,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60565376"/>
+        <c:crossAx val="82735104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1336,7 +1889,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1364,7 +1917,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -1372,10 +1924,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10968285214348213"/>
-          <c:y val="0.19491907261592312"/>
-          <c:w val="0.70044203849518871"/>
-          <c:h val="0.67099883347915001"/>
+          <c:x val="0.10968285214348215"/>
+          <c:y val="0.19491907261592323"/>
+          <c:w val="0.70044203849518893"/>
+          <c:h val="0.67099883347915068"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1440,24 +1992,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61299328"/>
-        <c:axId val="61325696"/>
+        <c:axId val="82805888"/>
+        <c:axId val="82807424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61299328"/>
+        <c:axId val="82805888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61325696"/>
+        <c:crossAx val="82807424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61325696"/>
+        <c:axId val="82807424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,7 +2017,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61299328"/>
+        <c:crossAx val="82805888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1474,7 +2026,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1501,7 +2053,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1558,24 +2109,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="126503552"/>
-        <c:axId val="126509440"/>
+        <c:axId val="82823424"/>
+        <c:axId val="84480000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126503552"/>
+        <c:axId val="82823424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126509440"/>
+        <c:crossAx val="84480000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126509440"/>
+        <c:axId val="84480000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +2134,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126503552"/>
+        <c:crossAx val="82823424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1592,7 +2143,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1623,7 +2174,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1680,24 +2230,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="130420736"/>
-        <c:axId val="130423808"/>
+        <c:axId val="84176896"/>
+        <c:axId val="84178432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130420736"/>
+        <c:axId val="84176896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130423808"/>
+        <c:crossAx val="84178432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130423808"/>
+        <c:axId val="84178432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,7 +2255,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130420736"/>
+        <c:crossAx val="84176896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1714,7 +2264,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1741,7 +2291,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1798,24 +2347,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59174272"/>
-        <c:axId val="71637632"/>
+        <c:axId val="84194816"/>
+        <c:axId val="84196352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59174272"/>
+        <c:axId val="84194816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71637632"/>
+        <c:crossAx val="84196352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71637632"/>
+        <c:axId val="84196352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,7 +2372,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59174272"/>
+        <c:crossAx val="84194816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1832,7 +2381,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1859,7 +2408,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1916,24 +2464,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="129930368"/>
-        <c:axId val="129932288"/>
+        <c:axId val="86366848"/>
+        <c:axId val="86180224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129930368"/>
+        <c:axId val="86366848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129932288"/>
+        <c:crossAx val="86180224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129932288"/>
+        <c:axId val="86180224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +2489,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129930368"/>
+        <c:crossAx val="86366848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1950,7 +2498,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1977,7 +2525,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2034,24 +2581,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="130782336"/>
-        <c:axId val="66249472"/>
+        <c:axId val="86228992"/>
+        <c:axId val="86230528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130782336"/>
+        <c:axId val="86228992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66249472"/>
+        <c:crossAx val="86230528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66249472"/>
+        <c:axId val="86230528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2606,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130782336"/>
+        <c:crossAx val="86228992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2068,7 +2615,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2122,6 +2669,146 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2721,21 +3408,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2744,10 +3431,10 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2756,10 +3443,10 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2768,10 +3455,10 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2799,14 +3486,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
@@ -2815,122 +3502,122 @@
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="53">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="29">
         <v>25</v>
       </c>
-      <c r="F8" s="53">
-        <v>0</v>
-      </c>
-      <c r="G8" s="47"/>
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="54">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="30">
         <v>25</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="30">
         <v>25</v>
       </c>
-      <c r="G9" s="35"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="54">
-        <v>30</v>
-      </c>
-      <c r="F10" s="54">
-        <v>30</v>
-      </c>
-      <c r="G10" s="35"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="30">
+        <v>30</v>
+      </c>
+      <c r="F10" s="30">
+        <v>30</v>
+      </c>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="54">
-        <v>30</v>
-      </c>
-      <c r="F11" s="54">
-        <v>0</v>
-      </c>
-      <c r="G11" s="35"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="30">
+        <v>30</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="54">
-        <v>30</v>
-      </c>
-      <c r="F12" s="54">
-        <v>30</v>
-      </c>
-      <c r="G12" s="35"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="30">
+        <v>30</v>
+      </c>
+      <c r="F12" s="30">
+        <v>30</v>
+      </c>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="54">
-        <v>30</v>
-      </c>
-      <c r="F13" s="54">
-        <v>30</v>
-      </c>
-      <c r="G13" s="35"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="30">
+        <v>30</v>
+      </c>
+      <c r="F13" s="30">
+        <v>30</v>
+      </c>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="6">
         <v>30</v>
       </c>
-      <c r="F14" s="56">
-        <v>0</v>
-      </c>
-      <c r="G14" s="57"/>
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" t="s">
         <v>23</v>
       </c>
@@ -2962,21 +3649,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:14">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" t="s">
@@ -2985,151 +3672,151 @@
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="53">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="29">
         <v>25</v>
       </c>
-      <c r="F8" s="53">
-        <v>0</v>
-      </c>
-      <c r="G8" s="47">
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="54">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="30">
         <v>25</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="30">
         <v>25</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="54">
-        <v>30</v>
-      </c>
-      <c r="F10" s="54">
-        <v>30</v>
-      </c>
-      <c r="G10" s="35">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="30">
+        <v>30</v>
+      </c>
+      <c r="F10" s="30">
+        <v>30</v>
+      </c>
+      <c r="G10" s="18">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="54">
-        <v>30</v>
-      </c>
-      <c r="F11" s="54">
-        <v>0</v>
-      </c>
-      <c r="G11" s="35">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="30">
+        <v>30</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="54">
-        <v>30</v>
-      </c>
-      <c r="F12" s="54">
-        <v>30</v>
-      </c>
-      <c r="G12" s="35">
-        <v>0</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="30">
+        <v>30</v>
+      </c>
+      <c r="F12" s="30">
+        <v>30</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="54">
-        <v>30</v>
-      </c>
-      <c r="F13" s="54">
-        <v>30</v>
-      </c>
-      <c r="G13" s="35">
-        <v>0</v>
-      </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="30">
+        <v>30</v>
+      </c>
+      <c r="F13" s="30">
+        <v>30</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="6">
         <v>30</v>
       </c>
-      <c r="F14" s="56">
-        <v>0</v>
-      </c>
-      <c r="G14" s="57">
-        <v>0</v>
-      </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" t="s">
         <v>23</v>
       </c>
@@ -3145,165 +3832,165 @@
         <f>SUM(G8:G14)</f>
         <v>30</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="10:14">
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="10:14">
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="10:14">
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="10:14">
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="10:14">
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="10:14">
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
     </row>
     <row r="23" spans="10:14">
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="10:14">
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
     </row>
     <row r="25" spans="10:14">
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" spans="10:14">
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" spans="10:14">
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" spans="10:14">
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
     </row>
     <row r="29" spans="10:14">
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
     </row>
     <row r="30" spans="10:14">
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
     </row>
     <row r="31" spans="10:14">
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
     </row>
     <row r="32" spans="10:14">
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="10:14">
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="10:14">
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
     </row>
     <row r="35" spans="10:14">
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
     </row>
     <row r="36" spans="10:14">
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
     </row>
     <row r="37" spans="10:14">
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3317,12 +4004,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3331,15 +4018,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -3348,11 +4035,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3367,11 +4054,766 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="3">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="4">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="4">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="35">
+        <v>30</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B12" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="5">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8">
+        <v>30</v>
+      </c>
+      <c r="H12" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1">
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6">
+        <f>SUM(E7:E12)</f>
+        <v>170</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" ref="F13:H13" si="0">SUM(F7:F12)</f>
+        <v>30</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="3">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="4">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="4">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="35">
+        <v>30</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B12" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="5">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1">
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6">
+        <f>SUM(E7:E12)</f>
+        <v>170</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" ref="F13:H13" si="0">SUM(F7:F12)</f>
+        <v>30</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="3">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="4">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="4">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="35">
+        <v>30</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B12" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="5">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8">
+        <v>30</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1">
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6">
+        <f>SUM(E7:E12)</f>
+        <v>170</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" ref="F13:H13" si="0">SUM(F7:F12)</f>
+        <v>30</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="3">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="4">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="4">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="35">
+        <v>30</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B12" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="5">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8">
+        <v>30</v>
+      </c>
+      <c r="H12" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1">
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6">
+        <f>SUM(E7:E12)</f>
+        <v>170</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" ref="F13:H13" si="0">SUM(F7:F12)</f>
+        <v>30</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -3380,11 +4822,11 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -3393,11 +4835,11 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -3406,11 +4848,11 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -3419,11 +4861,11 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -3481,15 +4923,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -3498,11 +4940,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3517,11 +4959,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -3532,11 +4974,11 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -3547,11 +4989,11 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -3562,11 +5004,11 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -3577,11 +5019,11 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -3638,15 +5080,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -3655,11 +5097,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3674,11 +5116,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -3691,11 +5133,11 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -3708,11 +5150,11 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -3725,11 +5167,11 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -3742,11 +5184,11 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -3798,22 +5240,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -3822,11 +5264,11 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3841,11 +5283,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="3">
         <v>10</v>
       </c>
@@ -3860,11 +5302,11 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="4">
         <v>40</v>
       </c>
@@ -3879,11 +5321,11 @@
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="4">
         <v>40</v>
       </c>
@@ -3898,11 +5340,11 @@
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="4">
         <v>40</v>
       </c>
@@ -3917,11 +5359,11 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="5">
         <v>40</v>
       </c>
@@ -3986,14 +5428,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
@@ -4002,11 +5444,11 @@
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
@@ -4018,11 +5460,11 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="3">
         <v>30</v>
       </c>
@@ -4030,11 +5472,11 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="4">
         <v>35</v>
       </c>
@@ -4102,11 +5544,11 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="B14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="4">
         <v>20</v>
       </c>
@@ -4126,11 +5568,11 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="4">
         <v>25</v>
       </c>
@@ -4138,11 +5580,11 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="4">
         <v>25</v>
       </c>
@@ -4197,14 +5639,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
@@ -4213,11 +5655,11 @@
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
@@ -4229,11 +5671,11 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="3">
         <v>30</v>
       </c>
@@ -4243,11 +5685,11 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="4">
         <v>35</v>
       </c>
@@ -4327,11 +5769,11 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="B14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="4">
         <v>20</v>
       </c>
@@ -4355,11 +5797,11 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="4">
         <v>25</v>
       </c>
@@ -4369,11 +5811,11 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="4">
         <v>25</v>
       </c>
@@ -4419,7 +5861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -4430,14 +5872,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
@@ -4446,11 +5888,11 @@
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
@@ -4462,11 +5904,11 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="3">
         <v>30</v>
       </c>
@@ -4478,11 +5920,11 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="4">
         <v>35</v>
       </c>
@@ -4574,11 +6016,11 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="B14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="4">
         <v>20</v>
       </c>
@@ -4606,11 +6048,11 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="4">
         <v>25</v>
       </c>
@@ -4622,11 +6064,11 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="4">
         <v>25</v>
       </c>
@@ -4674,21 +6116,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
@@ -4697,108 +6139,108 @@
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="53">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="29">
         <v>25</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="47"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="54">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="30">
         <v>25</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="35"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="54">
-        <v>30</v>
-      </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="30">
+        <v>30</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="54">
-        <v>30</v>
-      </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="35"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="30">
+        <v>30</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="54">
-        <v>30</v>
-      </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="35"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="30">
+        <v>30</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="54">
-        <v>30</v>
-      </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="35"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="30">
+        <v>30</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="6">
         <v>30</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="52"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" t="s">
         <v>23</v>
       </c>
@@ -4816,11 +6258,11 @@
       </c>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Burndownchart.xlsx
+++ b/Burndownchart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="2" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="4.3" sheetId="15" r:id="rId14"/>
     <sheet name="4.4" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -892,7 +892,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12357174103237112"/>
+          <c:x val="0.12357174103237113"/>
           <c:y val="0.1901738845144357"/>
           <c:w val="0.82153937007874001"/>
           <c:h val="0.65482210557013765"/>
@@ -957,24 +957,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64439424"/>
-        <c:axId val="64440960"/>
+        <c:axId val="124136064"/>
+        <c:axId val="124256640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64439424"/>
+        <c:axId val="124136064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64440960"/>
+        <c:crossAx val="124256640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64440960"/>
+        <c:axId val="124256640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +982,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64439424"/>
+        <c:crossAx val="124136064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -991,7 +991,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1078,24 +1078,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86422656"/>
-        <c:axId val="86424192"/>
+        <c:axId val="125103488"/>
+        <c:axId val="125203200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86422656"/>
+        <c:axId val="125103488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86424192"/>
+        <c:crossAx val="125203200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86424192"/>
+        <c:axId val="125203200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1103,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86422656"/>
+        <c:crossAx val="125103488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1112,7 +1112,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1147,7 +1147,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12357174103237115"/>
+          <c:x val="0.12357174103237117"/>
           <c:y val="0.1901738845144357"/>
           <c:w val="0.82153937007874001"/>
           <c:h val="0.65482210557013765"/>
@@ -1212,24 +1212,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86432384"/>
-        <c:axId val="101154816"/>
+        <c:axId val="125297024"/>
+        <c:axId val="125298560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86432384"/>
+        <c:axId val="125297024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101154816"/>
+        <c:crossAx val="125298560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101154816"/>
+        <c:axId val="125298560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1237,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86432384"/>
+        <c:crossAx val="125297024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1246,7 +1246,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1281,7 +1281,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12357174103237119"/>
+          <c:x val="0.1235717410323712"/>
           <c:y val="0.1901738845144357"/>
           <c:w val="0.82153937007874001"/>
           <c:h val="0.65482210557013765"/>
@@ -1340,24 +1340,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="119033856"/>
-        <c:axId val="119035392"/>
+        <c:axId val="125388288"/>
+        <c:axId val="125389824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119033856"/>
+        <c:axId val="125388288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119035392"/>
+        <c:crossAx val="125389824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119035392"/>
+        <c:axId val="125389824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,7 +1365,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119033856"/>
+        <c:crossAx val="125388288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1374,7 +1374,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1401,7 +1401,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -1409,7 +1408,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12357174103237122"/>
+          <c:x val="0.12357174103237123"/>
           <c:y val="0.1901738845144357"/>
           <c:w val="0.82153937007874001"/>
           <c:h val="0.65482210557013765"/>
@@ -1471,24 +1470,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104070144"/>
-        <c:axId val="103949056"/>
+        <c:axId val="125315712"/>
+        <c:axId val="125346176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104070144"/>
+        <c:axId val="125315712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103949056"/>
+        <c:crossAx val="125346176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103949056"/>
+        <c:axId val="125346176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,7 +1495,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104070144"/>
+        <c:crossAx val="125315712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1505,7 +1504,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1540,7 +1539,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12357174103237124"/>
+          <c:x val="0.12357174103237126"/>
           <c:y val="0.1901738845144357"/>
           <c:w val="0.82153937007874001"/>
           <c:h val="0.65482210557013765"/>
@@ -1598,31 +1597,31 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103643392"/>
-        <c:axId val="103645184"/>
+        <c:axId val="125456384"/>
+        <c:axId val="125457920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103643392"/>
+        <c:axId val="125456384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103645184"/>
+        <c:crossAx val="125457920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103645184"/>
+        <c:axId val="125457920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1630,7 +1629,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103643392"/>
+        <c:crossAx val="125456384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1639,7 +1638,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1727,25 +1726,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64383616"/>
-        <c:axId val="64409984"/>
+        <c:axId val="124305792"/>
+        <c:axId val="124307328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64383616"/>
+        <c:axId val="124305792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64409984"/>
+        <c:crossAx val="124307328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64409984"/>
+        <c:axId val="124307328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1752,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64383616"/>
+        <c:crossAx val="124305792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,7 +1761,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1855,24 +1854,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82735104"/>
-        <c:axId val="82736640"/>
+        <c:axId val="124761600"/>
+        <c:axId val="124763136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82735104"/>
+        <c:axId val="124761600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82736640"/>
+        <c:crossAx val="124763136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82736640"/>
+        <c:axId val="124763136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,7 +1879,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82735104"/>
+        <c:crossAx val="124761600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1889,7 +1888,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1924,10 +1923,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10968285214348215"/>
-          <c:y val="0.19491907261592323"/>
-          <c:w val="0.70044203849518893"/>
-          <c:h val="0.67099883347915068"/>
+          <c:x val="0.10968285214348217"/>
+          <c:y val="0.19491907261592326"/>
+          <c:w val="0.70044203849518905"/>
+          <c:h val="0.67099883347915101"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1992,24 +1991,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82805888"/>
-        <c:axId val="82807424"/>
+        <c:axId val="124795520"/>
+        <c:axId val="124821888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82805888"/>
+        <c:axId val="124795520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82807424"/>
+        <c:crossAx val="124821888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82807424"/>
+        <c:axId val="124821888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2016,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82805888"/>
+        <c:crossAx val="124795520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,7 +2025,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2109,24 +2108,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82823424"/>
-        <c:axId val="84480000"/>
+        <c:axId val="124879232"/>
+        <c:axId val="124880768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82823424"/>
+        <c:axId val="124879232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84480000"/>
+        <c:crossAx val="124880768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84480000"/>
+        <c:axId val="124880768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,7 +2133,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82823424"/>
+        <c:crossAx val="124879232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2143,7 +2142,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2230,24 +2229,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84176896"/>
-        <c:axId val="84178432"/>
+        <c:axId val="124913536"/>
+        <c:axId val="124915072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84176896"/>
+        <c:axId val="124913536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84178432"/>
+        <c:crossAx val="124915072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84178432"/>
+        <c:axId val="124915072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,7 +2254,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84176896"/>
+        <c:crossAx val="124913536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2264,7 +2263,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2347,24 +2346,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84194816"/>
-        <c:axId val="84196352"/>
+        <c:axId val="124976512"/>
+        <c:axId val="125142144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84194816"/>
+        <c:axId val="124976512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84196352"/>
+        <c:crossAx val="125142144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84196352"/>
+        <c:axId val="125142144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,7 +2371,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84194816"/>
+        <c:crossAx val="124976512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2381,7 +2380,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2464,24 +2463,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86366848"/>
-        <c:axId val="86180224"/>
+        <c:axId val="125154048"/>
+        <c:axId val="125155584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86366848"/>
+        <c:axId val="125154048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86180224"/>
+        <c:crossAx val="125155584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86180224"/>
+        <c:axId val="125155584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +2488,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86366848"/>
+        <c:crossAx val="125154048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2498,7 +2497,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2581,24 +2580,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86228992"/>
-        <c:axId val="86230528"/>
+        <c:axId val="125085568"/>
+        <c:axId val="125087104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86228992"/>
+        <c:axId val="125085568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86230528"/>
+        <c:crossAx val="125087104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86230528"/>
+        <c:axId val="125087104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,7 +2605,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86228992"/>
+        <c:crossAx val="125085568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2615,7 +2614,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4208,7 +4207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -4352,7 +4351,7 @@
         <v>170</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" ref="F13:H13" si="0">SUM(F7:F12)</f>
+        <f t="shared" ref="F13" si="0">SUM(F7:F12)</f>
         <v>30</v>
       </c>
       <c r="G13" s="11"/>
@@ -4534,7 +4533,7 @@
         <v>170</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" ref="F13:H13" si="0">SUM(F7:F12)</f>
+        <f t="shared" ref="F13:G13" si="0">SUM(F7:F12)</f>
         <v>30</v>
       </c>
       <c r="G13" s="11">
@@ -4563,8 +4562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4719,7 +4718,7 @@
         <v>30</v>
       </c>
       <c r="H12" s="10">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1">
@@ -4740,7 +4739,7 @@
       </c>
       <c r="H13" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
